--- a/application/src/test/resources/rates/пригород.xlsx
+++ b/application/src/test/resources/rates/пригород.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
   <si>
     <t>From</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Гайворон</t>
   </si>
   <si>
-    <t>26 км (дачи)</t>
-  </si>
-  <si>
     <t>Духовское</t>
   </si>
   <si>
@@ -69,88 +66,91 @@
     <t>Зеленодольское</t>
   </si>
   <si>
+    <t>Калиновка</t>
+  </si>
+  <si>
+    <t>Кнорринг</t>
+  </si>
+  <si>
+    <t>Константиновка</t>
+  </si>
+  <si>
+    <t>Кронштадка</t>
+  </si>
+  <si>
+    <t>Лебединое</t>
+  </si>
+  <si>
+    <t>Луговое</t>
+  </si>
+  <si>
+    <t>Малые ключи</t>
+  </si>
+  <si>
+    <t>Нахимовка</t>
+  </si>
+  <si>
+    <t>Новосельское</t>
+  </si>
+  <si>
+    <t>Никитовка</t>
+  </si>
+  <si>
+    <t>Новорусановка</t>
+  </si>
+  <si>
+    <t>Нововладимировка</t>
+  </si>
+  <si>
+    <t>Прохоры</t>
+  </si>
+  <si>
+    <t>Сунгач</t>
+  </si>
+  <si>
+    <t>Свиягино</t>
+  </si>
+  <si>
+    <t>Сосновка</t>
+  </si>
+  <si>
+    <t>Степное</t>
+  </si>
+  <si>
+    <t>Серебрянка</t>
+  </si>
+  <si>
+    <t>Татьяновка</t>
+  </si>
+  <si>
+    <t>Хвалынка</t>
+  </si>
+  <si>
+    <t>Чкаловка</t>
+  </si>
+  <si>
+    <t>Заманиха</t>
+  </si>
+  <si>
+    <t>Дачи Солнечные</t>
+  </si>
+  <si>
+    <t>Спасск-Дальний (СТА)</t>
+  </si>
+  <si>
+    <t>Спасск-Дальний (Цемзавод)</t>
+  </si>
+  <si>
+    <t>Спасск-Дальний (6 км)</t>
+  </si>
+  <si>
+    <t>Черёмушки</t>
+  </si>
+  <si>
     <t>Вишневка</t>
   </si>
   <si>
-    <t>Калиновка</t>
-  </si>
-  <si>
-    <t>Кнорринг</t>
-  </si>
-  <si>
-    <t>Константиновка</t>
-  </si>
-  <si>
-    <t>Кронштадка</t>
-  </si>
-  <si>
-    <t>Лебединое</t>
-  </si>
-  <si>
-    <t>Луговое</t>
-  </si>
-  <si>
-    <t>Малые ключи</t>
-  </si>
-  <si>
-    <t>Нахимовка</t>
-  </si>
-  <si>
-    <t>Новосельское</t>
-  </si>
-  <si>
-    <t>Никитовка</t>
-  </si>
-  <si>
-    <t>Новорусановка</t>
-  </si>
-  <si>
-    <t>Нововладимировка</t>
-  </si>
-  <si>
-    <t>Прохоры</t>
-  </si>
-  <si>
-    <t>Сунгач</t>
-  </si>
-  <si>
-    <t>Свиягино</t>
-  </si>
-  <si>
-    <t>Сосновка</t>
-  </si>
-  <si>
-    <t>Степное</t>
-  </si>
-  <si>
-    <t>Серебрянка</t>
-  </si>
-  <si>
-    <t>Татьяновка</t>
-  </si>
-  <si>
-    <t>Хвалынка</t>
-  </si>
-  <si>
-    <t>Чкаловка</t>
-  </si>
-  <si>
-    <t>Заманиха</t>
-  </si>
-  <si>
-    <t>Дачи Солнечные</t>
-  </si>
-  <si>
-    <t>Спасск-Дальний (СТА)</t>
-  </si>
-  <si>
-    <t>Спасск-Дальний (Цемзавод)</t>
-  </si>
-  <si>
-    <t>Спасск-Дальний (6 км)</t>
-  </si>
-  <si>
-    <t>Черёмушки</t>
+    <t>26 км</t>
   </si>
 </sst>
 </file>
@@ -501,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -536,6 +536,9 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2">
         <v>450</v>
       </c>
@@ -547,6 +550,9 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3">
         <v>440</v>
       </c>
@@ -558,6 +564,9 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4">
         <v>630</v>
       </c>
@@ -569,6 +578,9 @@
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5">
         <v>300</v>
       </c>
@@ -578,7 +590,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="D6">
         <v>420</v>
@@ -591,6 +606,9 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
       <c r="D7">
         <v>720</v>
       </c>
@@ -602,6 +620,9 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
       <c r="D8">
         <v>340</v>
       </c>
@@ -611,7 +632,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="D9">
         <v>600</v>
@@ -622,7 +646,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10">
         <v>850</v>
@@ -633,7 +660,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11">
         <v>670</v>
@@ -644,7 +674,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="D12">
         <v>510</v>
@@ -655,7 +688,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="D13">
         <v>380</v>
@@ -666,7 +702,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14">
         <v>980</v>
@@ -677,7 +716,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="D15">
         <v>400</v>
@@ -688,7 +730,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="D16">
         <v>500</v>
@@ -699,7 +744,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="D17">
         <v>380</v>
@@ -710,7 +758,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
       </c>
       <c r="D18">
         <v>600</v>
@@ -721,7 +772,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="D19">
         <v>450</v>
@@ -732,7 +786,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="D20">
         <v>320</v>
@@ -743,7 +800,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="D21">
         <v>450</v>
@@ -754,7 +814,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22">
         <v>480</v>
@@ -765,7 +828,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23">
         <v>400</v>
@@ -776,7 +842,10 @@
         <v>5</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
       </c>
       <c r="D24">
         <v>1040</v>
@@ -787,7 +856,10 @@
         <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
       </c>
       <c r="D25">
         <v>990</v>
@@ -798,7 +870,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
       </c>
       <c r="D26">
         <v>470</v>
@@ -809,7 +884,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
       </c>
       <c r="D27">
         <v>370</v>
@@ -820,7 +898,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
       </c>
       <c r="D28">
         <v>930</v>
@@ -831,7 +912,10 @@
         <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
       </c>
       <c r="D29">
         <v>720</v>
@@ -842,7 +926,10 @@
         <v>5</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
       </c>
       <c r="D30">
         <v>470</v>
@@ -853,7 +940,10 @@
         <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
       </c>
       <c r="D31">
         <v>240</v>
@@ -864,7 +954,10 @@
         <v>5</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
       </c>
       <c r="D32">
         <v>580</v>
@@ -875,7 +968,10 @@
         <v>5</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
       </c>
       <c r="D33">
         <v>400</v>
@@ -886,7 +982,10 @@
         <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
       </c>
       <c r="D34">
         <v>270</v>
@@ -897,7 +996,10 @@
         <v>5</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
       </c>
       <c r="D35">
         <v>770</v>
@@ -908,43 +1010,55 @@
         <v>5</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>700</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>250</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>350</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -952,64 +1066,68 @@
         <v>5</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>250</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>44</v>
+      <c r="C43">
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>350</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45">
         <v>370</v>
       </c>
     </row>
